--- a/Stablestates/25Oct_S1model.xlsx
+++ b/Stablestates/25Oct_S1model.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/Stablestates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC5D64-A314-F243-93D2-6A296F38E811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA1D54D-9177-C144-BE78-402C3F6BB995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="-7180" windowWidth="28840" windowHeight="20700" activeTab="1" xr2:uid="{10AF4D6B-B7E4-5644-8352-3E93EADC3131}"/>
+    <workbookView xWindow="7900" yWindow="2160" windowWidth="32140" windowHeight="19660" activeTab="4" xr2:uid="{10AF4D6B-B7E4-5644-8352-3E93EADC3131}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="24 Nov" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="45">
   <si>
     <t>Intermediate</t>
   </si>
@@ -160,6 +161,9 @@
   </si>
   <si>
     <t>5_2</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -960,24 +964,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -988,6 +981,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,18 +998,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="584">
+  <dxfs count="658">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1026,6 +1035,626 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -6851,6 +7480,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9264,7 +9923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C6C0D6-2885-7646-A788-B923F507DA73}">
   <dimension ref="A1:AR127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F96" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="F96" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
@@ -15795,11 +16454,11 @@
     </row>
     <row r="65" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T66" s="53" t="s">
+      <c r="T66" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="54"/>
-      <c r="V66" s="55"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="56"/>
       <c r="W66" s="39" t="s">
         <v>14</v>
       </c>
@@ -15865,9 +16524,9 @@
       </c>
     </row>
     <row r="67" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T67" s="56"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="59"/>
       <c r="W67" s="40" t="s">
         <v>2</v>
       </c>
@@ -15933,9 +16592,9 @@
       </c>
     </row>
     <row r="68" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T68" s="56"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="57"/>
+      <c r="T68" s="57"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="59"/>
       <c r="W68" s="40" t="s">
         <v>3</v>
       </c>
@@ -16001,9 +16660,9 @@
       </c>
     </row>
     <row r="69" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T69" s="56"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="57"/>
+      <c r="T69" s="57"/>
+      <c r="U69" s="58"/>
+      <c r="V69" s="59"/>
       <c r="W69" s="40" t="s">
         <v>4</v>
       </c>
@@ -16069,9 +16728,9 @@
       </c>
     </row>
     <row r="70" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T70" s="56"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="57"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="58"/>
+      <c r="V70" s="59"/>
       <c r="W70" s="40" t="s">
         <v>5</v>
       </c>
@@ -16137,9 +16796,9 @@
       </c>
     </row>
     <row r="71" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T71" s="58"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="62"/>
       <c r="W71" s="41" t="s">
         <v>6</v>
       </c>
@@ -16205,11 +16864,11 @@
       </c>
     </row>
     <row r="72" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T72" s="53" t="s">
+      <c r="T72" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="U72" s="54"/>
-      <c r="V72" s="55"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="56"/>
       <c r="W72" s="39" t="s">
         <v>16</v>
       </c>
@@ -16275,9 +16934,9 @@
       </c>
     </row>
     <row r="73" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T73" s="56"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="57"/>
+      <c r="T73" s="57"/>
+      <c r="U73" s="58"/>
+      <c r="V73" s="59"/>
       <c r="W73" s="40" t="s">
         <v>7</v>
       </c>
@@ -16343,9 +17002,9 @@
       </c>
     </row>
     <row r="74" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T74" s="56"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="57"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="59"/>
       <c r="W74" s="40" t="s">
         <v>8</v>
       </c>
@@ -16411,9 +17070,9 @@
       </c>
     </row>
     <row r="75" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T75" s="58"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="60"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="61"/>
+      <c r="V75" s="62"/>
       <c r="W75" s="41" t="s">
         <v>9</v>
       </c>
@@ -16479,11 +17138,11 @@
       </c>
     </row>
     <row r="76" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T76" s="53" t="s">
+      <c r="T76" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="U76" s="54"/>
-      <c r="V76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="56"/>
       <c r="W76" s="39" t="s">
         <v>20</v>
       </c>
@@ -16549,9 +17208,9 @@
       </c>
     </row>
     <row r="77" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T77" s="56"/>
-      <c r="U77" s="50"/>
-      <c r="V77" s="57"/>
+      <c r="T77" s="57"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="59"/>
       <c r="W77" s="40" t="s">
         <v>10</v>
       </c>
@@ -16617,9 +17276,9 @@
       </c>
     </row>
     <row r="78" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T78" s="56"/>
-      <c r="U78" s="50"/>
-      <c r="V78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="59"/>
       <c r="W78" s="40" t="s">
         <v>11</v>
       </c>
@@ -16685,9 +17344,9 @@
       </c>
     </row>
     <row r="79" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T79" s="56"/>
-      <c r="U79" s="50"/>
-      <c r="V79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="58"/>
+      <c r="V79" s="59"/>
       <c r="W79" s="40" t="s">
         <v>12</v>
       </c>
@@ -16753,9 +17412,9 @@
       </c>
     </row>
     <row r="80" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T80" s="58"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="60"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="61"/>
+      <c r="V80" s="62"/>
       <c r="W80" s="41" t="s">
         <v>13</v>
       </c>
@@ -16821,11 +17480,11 @@
       </c>
     </row>
     <row r="81" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T81" s="53" t="s">
+      <c r="T81" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U81" s="54"/>
-      <c r="V81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="56"/>
       <c r="W81" s="39" t="s">
         <v>15</v>
       </c>
@@ -16891,9 +17550,9 @@
       </c>
     </row>
     <row r="82" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T82" s="56"/>
-      <c r="U82" s="50"/>
-      <c r="V82" s="57"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="58"/>
+      <c r="V82" s="59"/>
       <c r="W82" s="41" t="s">
         <v>19</v>
       </c>
@@ -16959,9 +17618,9 @@
       </c>
     </row>
     <row r="83" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T83" s="56"/>
-      <c r="U83" s="50"/>
-      <c r="V83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="59"/>
       <c r="W83" s="39" t="s">
         <v>17</v>
       </c>
@@ -17027,9 +17686,9 @@
       </c>
     </row>
     <row r="84" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T84" s="58"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="60"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="61"/>
+      <c r="V84" s="62"/>
       <c r="W84" s="41" t="s">
         <v>18</v>
       </c>
@@ -17095,11 +17754,11 @@
       </c>
     </row>
     <row r="85" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T85" s="53" t="s">
+      <c r="T85" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="U85" s="54"/>
-      <c r="V85" s="55"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="56"/>
       <c r="W85" s="39" t="s">
         <v>23</v>
       </c>
@@ -17165,9 +17824,9 @@
       </c>
     </row>
     <row r="86" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T86" s="56"/>
-      <c r="U86" s="50"/>
-      <c r="V86" s="57"/>
+      <c r="T86" s="57"/>
+      <c r="U86" s="58"/>
+      <c r="V86" s="59"/>
       <c r="W86" s="40" t="s">
         <v>22</v>
       </c>
@@ -17233,9 +17892,9 @@
       </c>
     </row>
     <row r="87" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T87" s="58"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="60"/>
+      <c r="T87" s="60"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="62"/>
       <c r="W87" s="10" t="s">
         <v>21</v>
       </c>
@@ -17301,11 +17960,11 @@
       </c>
     </row>
     <row r="88" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T88" s="53" t="s">
+      <c r="T88" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U88" s="54"/>
-      <c r="V88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="56"/>
       <c r="W88" s="39" t="s">
         <v>24</v>
       </c>
@@ -17371,9 +18030,9 @@
       </c>
     </row>
     <row r="89" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T89" s="56"/>
-      <c r="U89" s="50"/>
-      <c r="V89" s="57"/>
+      <c r="T89" s="57"/>
+      <c r="U89" s="58"/>
+      <c r="V89" s="59"/>
       <c r="W89" s="40" t="s">
         <v>25</v>
       </c>
@@ -17439,9 +18098,9 @@
       </c>
     </row>
     <row r="90" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T90" s="58"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="60"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="62"/>
       <c r="W90" s="41" t="s">
         <v>26</v>
       </c>
@@ -17507,11 +18166,11 @@
       </c>
     </row>
     <row r="91" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T91" s="53" t="s">
+      <c r="T91" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="U91" s="54"/>
-      <c r="V91" s="55"/>
+      <c r="U91" s="55"/>
+      <c r="V91" s="56"/>
       <c r="W91" s="39" t="s">
         <v>39</v>
       </c>
@@ -17577,9 +18236,9 @@
       </c>
     </row>
     <row r="92" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T92" s="56"/>
-      <c r="U92" s="50"/>
-      <c r="V92" s="57"/>
+      <c r="T92" s="57"/>
+      <c r="U92" s="58"/>
+      <c r="V92" s="59"/>
       <c r="W92" s="40" t="s">
         <v>40</v>
       </c>
@@ -17645,9 +18304,9 @@
       </c>
     </row>
     <row r="93" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T93" s="56"/>
-      <c r="U93" s="50"/>
-      <c r="V93" s="57"/>
+      <c r="T93" s="57"/>
+      <c r="U93" s="58"/>
+      <c r="V93" s="59"/>
       <c r="W93" s="40" t="s">
         <v>41</v>
       </c>
@@ -17713,9 +18372,9 @@
       </c>
     </row>
     <row r="94" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T94" s="56"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="57"/>
+      <c r="T94" s="57"/>
+      <c r="U94" s="58"/>
+      <c r="V94" s="59"/>
       <c r="W94" s="40" t="s">
         <v>42</v>
       </c>
@@ -17781,9 +18440,9 @@
       </c>
     </row>
     <row r="95" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T95" s="58"/>
-      <c r="U95" s="59"/>
-      <c r="V95" s="60"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="61"/>
+      <c r="V95" s="62"/>
       <c r="W95" s="41" t="s">
         <v>43</v>
       </c>
@@ -17850,15 +18509,15 @@
     </row>
     <row r="97" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T98" s="47" t="s">
+      <c r="T98" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="U98" s="48"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="65" t="s">
+      <c r="U98" s="64"/>
+      <c r="V98" s="64"/>
+      <c r="W98" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X98" s="61">
+      <c r="X98" s="47">
         <v>0</v>
       </c>
       <c r="Y98" s="27">
@@ -17920,10 +18579,10 @@
       </c>
     </row>
     <row r="99" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T99" s="49"/>
-      <c r="U99" s="50"/>
-      <c r="V99" s="50"/>
-      <c r="W99" s="66" t="s">
+      <c r="T99" s="65"/>
+      <c r="U99" s="58"/>
+      <c r="V99" s="58"/>
+      <c r="W99" s="52" t="s">
         <v>2</v>
       </c>
       <c r="X99" s="38">
@@ -17988,10 +18647,10 @@
       </c>
     </row>
     <row r="100" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T100" s="49"/>
-      <c r="U100" s="50"/>
-      <c r="V100" s="50"/>
-      <c r="W100" s="66" t="s">
+      <c r="T100" s="65"/>
+      <c r="U100" s="58"/>
+      <c r="V100" s="58"/>
+      <c r="W100" s="52" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="38">
@@ -18056,10 +18715,10 @@
       </c>
     </row>
     <row r="101" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T101" s="49"/>
-      <c r="U101" s="50"/>
-      <c r="V101" s="50"/>
-      <c r="W101" s="66" t="s">
+      <c r="T101" s="65"/>
+      <c r="U101" s="58"/>
+      <c r="V101" s="58"/>
+      <c r="W101" s="52" t="s">
         <v>4</v>
       </c>
       <c r="X101" s="38">
@@ -18124,10 +18783,10 @@
       </c>
     </row>
     <row r="102" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T102" s="49"/>
-      <c r="U102" s="50"/>
-      <c r="V102" s="50"/>
-      <c r="W102" s="66" t="s">
+      <c r="T102" s="65"/>
+      <c r="U102" s="58"/>
+      <c r="V102" s="58"/>
+      <c r="W102" s="52" t="s">
         <v>5</v>
       </c>
       <c r="X102" s="38">
@@ -18192,13 +18851,13 @@
       </c>
     </row>
     <row r="103" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T103" s="49"/>
-      <c r="U103" s="50"/>
-      <c r="V103" s="50"/>
-      <c r="W103" s="67" t="s">
+      <c r="T103" s="65"/>
+      <c r="U103" s="58"/>
+      <c r="V103" s="58"/>
+      <c r="W103" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="X103" s="62">
+      <c r="X103" s="48">
         <v>1</v>
       </c>
       <c r="Y103" s="32">
@@ -18260,15 +18919,15 @@
       </c>
     </row>
     <row r="104" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T104" s="47" t="s">
+      <c r="T104" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="U104" s="48"/>
-      <c r="V104" s="48"/>
-      <c r="W104" s="65" t="s">
+      <c r="U104" s="64"/>
+      <c r="V104" s="64"/>
+      <c r="W104" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="X104" s="61">
+      <c r="X104" s="47">
         <v>0</v>
       </c>
       <c r="Y104" s="27">
@@ -18330,10 +18989,10 @@
       </c>
     </row>
     <row r="105" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T105" s="49"/>
-      <c r="U105" s="50"/>
-      <c r="V105" s="50"/>
-      <c r="W105" s="66" t="s">
+      <c r="T105" s="65"/>
+      <c r="U105" s="58"/>
+      <c r="V105" s="58"/>
+      <c r="W105" s="52" t="s">
         <v>7</v>
       </c>
       <c r="X105" s="38">
@@ -18398,10 +19057,10 @@
       </c>
     </row>
     <row r="106" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T106" s="49"/>
-      <c r="U106" s="50"/>
-      <c r="V106" s="50"/>
-      <c r="W106" s="66" t="s">
+      <c r="T106" s="65"/>
+      <c r="U106" s="58"/>
+      <c r="V106" s="58"/>
+      <c r="W106" s="52" t="s">
         <v>8</v>
       </c>
       <c r="X106" s="38">
@@ -18466,13 +19125,13 @@
       </c>
     </row>
     <row r="107" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T107" s="51"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="52"/>
-      <c r="W107" s="67" t="s">
+      <c r="T107" s="66"/>
+      <c r="U107" s="67"/>
+      <c r="V107" s="67"/>
+      <c r="W107" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="X107" s="62">
+      <c r="X107" s="48">
         <v>0</v>
       </c>
       <c r="Y107" s="32">
@@ -18534,15 +19193,15 @@
       </c>
     </row>
     <row r="108" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T108" s="47" t="s">
+      <c r="T108" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="U108" s="48"/>
-      <c r="V108" s="48"/>
-      <c r="W108" s="65" t="s">
+      <c r="U108" s="64"/>
+      <c r="V108" s="64"/>
+      <c r="W108" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="X108" s="61">
+      <c r="X108" s="47">
         <v>1</v>
       </c>
       <c r="Y108" s="27">
@@ -18604,10 +19263,10 @@
       </c>
     </row>
     <row r="109" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T109" s="49"/>
-      <c r="U109" s="50"/>
-      <c r="V109" s="50"/>
-      <c r="W109" s="66" t="s">
+      <c r="T109" s="65"/>
+      <c r="U109" s="58"/>
+      <c r="V109" s="58"/>
+      <c r="W109" s="52" t="s">
         <v>10</v>
       </c>
       <c r="X109" s="38">
@@ -18672,10 +19331,10 @@
       </c>
     </row>
     <row r="110" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T110" s="49"/>
-      <c r="U110" s="50"/>
-      <c r="V110" s="50"/>
-      <c r="W110" s="66" t="s">
+      <c r="T110" s="65"/>
+      <c r="U110" s="58"/>
+      <c r="V110" s="58"/>
+      <c r="W110" s="52" t="s">
         <v>11</v>
       </c>
       <c r="X110" s="38">
@@ -18740,10 +19399,10 @@
       </c>
     </row>
     <row r="111" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T111" s="49"/>
-      <c r="U111" s="50"/>
-      <c r="V111" s="50"/>
-      <c r="W111" s="66" t="s">
+      <c r="T111" s="65"/>
+      <c r="U111" s="58"/>
+      <c r="V111" s="58"/>
+      <c r="W111" s="52" t="s">
         <v>12</v>
       </c>
       <c r="X111" s="38">
@@ -18808,13 +19467,13 @@
       </c>
     </row>
     <row r="112" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T112" s="51"/>
-      <c r="U112" s="52"/>
-      <c r="V112" s="52"/>
-      <c r="W112" s="67" t="s">
+      <c r="T112" s="66"/>
+      <c r="U112" s="67"/>
+      <c r="V112" s="67"/>
+      <c r="W112" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="X112" s="62">
+      <c r="X112" s="48">
         <v>0</v>
       </c>
       <c r="Y112" s="32">
@@ -18876,15 +19535,15 @@
       </c>
     </row>
     <row r="113" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T113" s="47" t="s">
+      <c r="T113" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="U113" s="48"/>
-      <c r="V113" s="48"/>
-      <c r="W113" s="65" t="s">
+      <c r="U113" s="64"/>
+      <c r="V113" s="64"/>
+      <c r="W113" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="X113" s="61">
+      <c r="X113" s="47">
         <v>0</v>
       </c>
       <c r="Y113" s="27">
@@ -18946,10 +19605,10 @@
       </c>
     </row>
     <row r="114" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T114" s="49"/>
-      <c r="U114" s="50"/>
-      <c r="V114" s="50"/>
-      <c r="W114" s="66" t="s">
+      <c r="T114" s="65"/>
+      <c r="U114" s="58"/>
+      <c r="V114" s="58"/>
+      <c r="W114" s="52" t="s">
         <v>19</v>
       </c>
       <c r="X114" s="38">
@@ -19014,10 +19673,10 @@
       </c>
     </row>
     <row r="115" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T115" s="49"/>
-      <c r="U115" s="50"/>
-      <c r="V115" s="50"/>
-      <c r="W115" s="66" t="s">
+      <c r="T115" s="65"/>
+      <c r="U115" s="58"/>
+      <c r="V115" s="58"/>
+      <c r="W115" s="52" t="s">
         <v>17</v>
       </c>
       <c r="X115" s="38">
@@ -19082,13 +19741,13 @@
       </c>
     </row>
     <row r="116" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T116" s="51"/>
-      <c r="U116" s="52"/>
-      <c r="V116" s="52"/>
-      <c r="W116" s="67" t="s">
+      <c r="T116" s="66"/>
+      <c r="U116" s="67"/>
+      <c r="V116" s="67"/>
+      <c r="W116" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="X116" s="62">
+      <c r="X116" s="48">
         <v>0</v>
       </c>
       <c r="Y116" s="32">
@@ -19150,15 +19809,15 @@
       </c>
     </row>
     <row r="117" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T117" s="47" t="s">
+      <c r="T117" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="U117" s="48"/>
-      <c r="V117" s="48"/>
-      <c r="W117" s="65" t="s">
+      <c r="U117" s="64"/>
+      <c r="V117" s="64"/>
+      <c r="W117" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="X117" s="63">
+      <c r="X117" s="49">
         <v>0</v>
       </c>
       <c r="Y117" s="25">
@@ -19220,10 +19879,10 @@
       </c>
     </row>
     <row r="118" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T118" s="49"/>
-      <c r="U118" s="50"/>
-      <c r="V118" s="50"/>
-      <c r="W118" s="66" t="s">
+      <c r="T118" s="65"/>
+      <c r="U118" s="58"/>
+      <c r="V118" s="58"/>
+      <c r="W118" s="52" t="s">
         <v>22</v>
       </c>
       <c r="X118" s="38">
@@ -19288,13 +19947,13 @@
       </c>
     </row>
     <row r="119" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T119" s="51"/>
-      <c r="U119" s="52"/>
-      <c r="V119" s="52"/>
-      <c r="W119" s="67" t="s">
+      <c r="T119" s="66"/>
+      <c r="U119" s="67"/>
+      <c r="V119" s="67"/>
+      <c r="W119" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="X119" s="64">
+      <c r="X119" s="50">
         <v>1</v>
       </c>
       <c r="Y119" s="45">
@@ -19356,15 +20015,15 @@
       </c>
     </row>
     <row r="120" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T120" s="47" t="s">
+      <c r="T120" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="U120" s="48"/>
-      <c r="V120" s="48"/>
-      <c r="W120" s="65" t="s">
+      <c r="U120" s="64"/>
+      <c r="V120" s="64"/>
+      <c r="W120" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="X120" s="61">
+      <c r="X120" s="47">
         <v>1</v>
       </c>
       <c r="Y120" s="27">
@@ -19426,10 +20085,10 @@
       </c>
     </row>
     <row r="121" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T121" s="49"/>
-      <c r="U121" s="50"/>
-      <c r="V121" s="50"/>
-      <c r="W121" s="66" t="s">
+      <c r="T121" s="65"/>
+      <c r="U121" s="58"/>
+      <c r="V121" s="58"/>
+      <c r="W121" s="52" t="s">
         <v>25</v>
       </c>
       <c r="X121" s="38">
@@ -19494,13 +20153,13 @@
       </c>
     </row>
     <row r="122" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T122" s="51"/>
-      <c r="U122" s="52"/>
-      <c r="V122" s="52"/>
-      <c r="W122" s="67" t="s">
+      <c r="T122" s="66"/>
+      <c r="U122" s="67"/>
+      <c r="V122" s="67"/>
+      <c r="W122" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="X122" s="62">
+      <c r="X122" s="48">
         <v>1</v>
       </c>
       <c r="Y122" s="32">
@@ -19562,15 +20221,15 @@
       </c>
     </row>
     <row r="123" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T123" s="47" t="s">
+      <c r="T123" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="U123" s="48"/>
-      <c r="V123" s="48"/>
-      <c r="W123" s="65" t="s">
+      <c r="U123" s="64"/>
+      <c r="V123" s="64"/>
+      <c r="W123" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="X123" s="63">
+      <c r="X123" s="49">
         <v>0</v>
       </c>
       <c r="Y123" s="25">
@@ -19632,10 +20291,10 @@
       </c>
     </row>
     <row r="124" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T124" s="49"/>
-      <c r="U124" s="50"/>
-      <c r="V124" s="50"/>
-      <c r="W124" s="66" t="s">
+      <c r="T124" s="65"/>
+      <c r="U124" s="58"/>
+      <c r="V124" s="58"/>
+      <c r="W124" s="52" t="s">
         <v>39</v>
       </c>
       <c r="X124" s="38">
@@ -19700,10 +20359,10 @@
       </c>
     </row>
     <row r="125" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T125" s="49"/>
-      <c r="U125" s="50"/>
-      <c r="V125" s="50"/>
-      <c r="W125" s="66" t="s">
+      <c r="T125" s="65"/>
+      <c r="U125" s="58"/>
+      <c r="V125" s="58"/>
+      <c r="W125" s="52" t="s">
         <v>41</v>
       </c>
       <c r="X125" s="38">
@@ -19768,10 +20427,10 @@
       </c>
     </row>
     <row r="126" spans="20:43" x14ac:dyDescent="0.2">
-      <c r="T126" s="49"/>
-      <c r="U126" s="50"/>
-      <c r="V126" s="50"/>
-      <c r="W126" s="66" t="s">
+      <c r="T126" s="65"/>
+      <c r="U126" s="58"/>
+      <c r="V126" s="58"/>
+      <c r="W126" s="52" t="s">
         <v>42</v>
       </c>
       <c r="X126" s="38">
@@ -19836,13 +20495,13 @@
       </c>
     </row>
     <row r="127" spans="20:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T127" s="51"/>
-      <c r="U127" s="52"/>
-      <c r="V127" s="52"/>
-      <c r="W127" s="67" t="s">
+      <c r="T127" s="66"/>
+      <c r="U127" s="67"/>
+      <c r="V127" s="67"/>
+      <c r="W127" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="X127" s="62">
+      <c r="X127" s="48">
         <v>0</v>
       </c>
       <c r="Y127" s="32">
@@ -19905,6 +20564,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="T120:V122"/>
+    <mergeCell ref="T123:V127"/>
+    <mergeCell ref="T98:V103"/>
+    <mergeCell ref="T104:V107"/>
+    <mergeCell ref="T108:V112"/>
+    <mergeCell ref="T113:V116"/>
+    <mergeCell ref="T117:V119"/>
     <mergeCell ref="T85:V87"/>
     <mergeCell ref="T88:V90"/>
     <mergeCell ref="T91:V95"/>
@@ -19912,2046 +20578,2039 @@
     <mergeCell ref="T72:V75"/>
     <mergeCell ref="T76:V80"/>
     <mergeCell ref="T81:V84"/>
-    <mergeCell ref="T120:V122"/>
-    <mergeCell ref="T123:V127"/>
-    <mergeCell ref="T98:V103"/>
-    <mergeCell ref="T104:V107"/>
-    <mergeCell ref="T108:V112"/>
-    <mergeCell ref="T113:V116"/>
-    <mergeCell ref="T117:V119"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:P6 B8:P10 B12:P16 R12:T16 R8:T10 R2:T6 V2:V6 V8:V10 V12:V30 B18:U19 B23:U30 B21:U21">
-    <cfRule type="cellIs" dxfId="583" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="688" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:P1 R1:T1 V1">
-    <cfRule type="cellIs" dxfId="582" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="687" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:P7 R7:T7 V7">
-    <cfRule type="cellIs" dxfId="581" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="686" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:P11 R11:T11 V11">
-    <cfRule type="cellIs" dxfId="580" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="685" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q16 Q8:Q10 Q2:Q6">
-    <cfRule type="cellIs" dxfId="579" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="684" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="578" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="683" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="577" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="682" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="576" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="681" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U6 U8:U10 U12:U16">
-    <cfRule type="cellIs" dxfId="575" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="680" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="574" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="679" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="573" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="678" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="572" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="677" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:T17 B17:P17">
-    <cfRule type="cellIs" dxfId="571" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="676" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="570" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="675" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="569" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="674" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:V31">
-    <cfRule type="cellIs" dxfId="568" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="673" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:U22">
-    <cfRule type="cellIs" dxfId="567" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="672" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:U20">
-    <cfRule type="cellIs" dxfId="566" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="671" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:E38 B40:E42 B44:E48 B50:E51 B55:E62 B53:E53">
-    <cfRule type="cellIs" dxfId="565" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="670" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:E33">
-    <cfRule type="cellIs" dxfId="564" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="669" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:E39">
-    <cfRule type="cellIs" dxfId="563" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="668" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43">
-    <cfRule type="cellIs" dxfId="562" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="667" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:E49">
-    <cfRule type="cellIs" dxfId="561" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="666" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:E54">
-    <cfRule type="cellIs" dxfId="560" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="665" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:E52">
-    <cfRule type="cellIs" dxfId="559" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="664" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:I38 F40:I42 F44:I48 F50:I51 F55:I62 F53:I53">
-    <cfRule type="cellIs" dxfId="558" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="663" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:I33">
-    <cfRule type="cellIs" dxfId="557" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="662" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:I39">
-    <cfRule type="cellIs" dxfId="556" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="661" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:I43">
-    <cfRule type="cellIs" dxfId="555" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="660" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:I49">
-    <cfRule type="cellIs" dxfId="554" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="659" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:I54">
-    <cfRule type="cellIs" dxfId="553" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="658" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:I52">
-    <cfRule type="cellIs" dxfId="552" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="657" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:L38 J40:L42 J44:L48 J50:M51 J55:M62 J53:M53">
-    <cfRule type="cellIs" dxfId="551" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="656" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L33">
-    <cfRule type="cellIs" dxfId="550" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="655" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:L39">
-    <cfRule type="cellIs" dxfId="549" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="654" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="548" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="653" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:M48 M40:M42 M34:M38">
-    <cfRule type="cellIs" dxfId="547" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="652" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="546" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="651" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39">
-    <cfRule type="cellIs" dxfId="545" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="650" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="544" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="649" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:L49">
-    <cfRule type="cellIs" dxfId="543" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="648" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49">
-    <cfRule type="cellIs" dxfId="542" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="647" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:M54">
-    <cfRule type="cellIs" dxfId="541" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="646" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:M52">
-    <cfRule type="cellIs" dxfId="540" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="645" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:Q38 N40:Q42 N44:Q48 N50:Q51 N55:Q62 N53:Q53">
-    <cfRule type="cellIs" dxfId="539" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="644" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:Q33">
-    <cfRule type="cellIs" dxfId="538" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="643" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:Q39">
-    <cfRule type="cellIs" dxfId="537" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="642" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:Q43">
-    <cfRule type="cellIs" dxfId="536" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="641" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49:Q49">
-    <cfRule type="cellIs" dxfId="535" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="640" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:Q54">
-    <cfRule type="cellIs" dxfId="534" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="639" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:Q52">
-    <cfRule type="cellIs" dxfId="533" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="638" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:T48 R40:T42 R34:T38 R50:U51 R55:U62 R53:U53">
-    <cfRule type="cellIs" dxfId="532" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="637" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:T33">
-    <cfRule type="cellIs" dxfId="531" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="636" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39:T39">
-    <cfRule type="cellIs" dxfId="530" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="635" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43:T43">
-    <cfRule type="cellIs" dxfId="529" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="634" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:U38 U40:U42 U44:U48">
-    <cfRule type="cellIs" dxfId="528" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="633" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="527" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="632" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39">
-    <cfRule type="cellIs" dxfId="526" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="631" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U43">
-    <cfRule type="cellIs" dxfId="525" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="630" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49:T49">
-    <cfRule type="cellIs" dxfId="524" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="629" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49">
-    <cfRule type="cellIs" dxfId="523" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="628" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R54:U54">
-    <cfRule type="cellIs" dxfId="522" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="627" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:U52">
-    <cfRule type="cellIs" dxfId="521" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="626" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z6 Z8:Z10 Z12:Z16 Z18:Z19 Z23:Z30 Z21">
-    <cfRule type="cellIs" dxfId="520" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="583" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1">
-    <cfRule type="cellIs" dxfId="519" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="582" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="518" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="581" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="517" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17">
-    <cfRule type="cellIs" dxfId="516" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="579" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22">
-    <cfRule type="cellIs" dxfId="515" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="577" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20">
-    <cfRule type="cellIs" dxfId="514" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="576" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA6 AA8:AA10 AA12:AA16 AA18:AA19 AA23:AA30 AA21">
-    <cfRule type="cellIs" dxfId="513" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="568" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="cellIs" dxfId="512" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="567" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="511" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="cellIs" dxfId="510" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="565" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="509" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="564" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22">
-    <cfRule type="cellIs" dxfId="508" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="562" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20">
-    <cfRule type="cellIs" dxfId="507" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="561" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO18:AO19 AO23:AO30 AO21">
-    <cfRule type="cellIs" dxfId="506" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="461" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12:AO16 AO8:AO10 AO2:AO6">
-    <cfRule type="cellIs" dxfId="505" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="460" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1">
-    <cfRule type="cellIs" dxfId="504" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="459" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7">
-    <cfRule type="cellIs" dxfId="503" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11">
-    <cfRule type="cellIs" dxfId="502" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="457" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO17">
-    <cfRule type="cellIs" dxfId="501" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="456" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="500" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="455" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="499" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO20">
-    <cfRule type="cellIs" dxfId="498" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="453" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:AA38 X40:AA42 X44:AA48 X50:AA51 X55:AA62 X53:AA53">
-    <cfRule type="cellIs" dxfId="497" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:AA33">
-    <cfRule type="cellIs" dxfId="496" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="437" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39:AA39">
-    <cfRule type="cellIs" dxfId="495" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="436" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X43:AA43">
-    <cfRule type="cellIs" dxfId="494" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="435" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X49:AA49">
-    <cfRule type="cellIs" dxfId="493" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X54:AA54">
-    <cfRule type="cellIs" dxfId="492" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X52:AA52">
-    <cfRule type="cellIs" dxfId="491" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="432" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34:AE38 AB40:AE42 AB44:AE48 AB50:AE51 AB55:AE62 AB53:AE53">
-    <cfRule type="cellIs" dxfId="490" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="431" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33:AE33">
-    <cfRule type="cellIs" dxfId="489" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39:AE39">
-    <cfRule type="cellIs" dxfId="488" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB43:AE43">
-    <cfRule type="cellIs" dxfId="487" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="428" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB49:AE49">
-    <cfRule type="cellIs" dxfId="486" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="427" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54:AE54">
-    <cfRule type="cellIs" dxfId="485" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB52:AE52">
-    <cfRule type="cellIs" dxfId="484" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="425" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44:AP48 AN40:AP42 AN34:AP38 AN50:AQ51 AN55:AQ62 AN53:AQ53">
-    <cfRule type="cellIs" dxfId="483" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN33:AP33">
-    <cfRule type="cellIs" dxfId="482" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="343" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN39:AP39">
-    <cfRule type="cellIs" dxfId="481" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN43:AP43">
-    <cfRule type="cellIs" dxfId="480" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="341" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ34:AQ38 AQ40:AQ42 AQ44:AQ48">
-    <cfRule type="cellIs" dxfId="479" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="340" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ33">
-    <cfRule type="cellIs" dxfId="478" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="339" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="477" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ43">
-    <cfRule type="cellIs" dxfId="476" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="337" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN49:AP49">
-    <cfRule type="cellIs" dxfId="475" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="336" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ49">
-    <cfRule type="cellIs" dxfId="474" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="335" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN54:AQ54">
-    <cfRule type="cellIs" dxfId="473" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN52:AQ52">
-    <cfRule type="cellIs" dxfId="472" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="333" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF6 AF8:AF10 AF12:AF16 AF18:AF19 AF23:AF30 AF21">
-    <cfRule type="cellIs" dxfId="471" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="325" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1">
-    <cfRule type="cellIs" dxfId="470" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="469" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="323" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="468" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17">
-    <cfRule type="cellIs" dxfId="467" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="321" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="466" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="320" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="465" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="319" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20">
-    <cfRule type="cellIs" dxfId="464" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34:AF38 AF40:AF42 AF44:AF48 AF50:AF51 AF55:AF62 AF53">
-    <cfRule type="cellIs" dxfId="463" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="317" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="462" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF39">
-    <cfRule type="cellIs" dxfId="461" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="315" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF43">
-    <cfRule type="cellIs" dxfId="460" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF49">
-    <cfRule type="cellIs" dxfId="459" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="313" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF54">
-    <cfRule type="cellIs" dxfId="458" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="312" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF52">
-    <cfRule type="cellIs" dxfId="457" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="311" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG6 AG8:AG10 AG12:AG16 AG18:AG19 AG23:AG30 AG21">
-    <cfRule type="cellIs" dxfId="456" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1">
-    <cfRule type="cellIs" dxfId="455" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="309" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="454" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="308" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="453" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="307" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG17">
-    <cfRule type="cellIs" dxfId="452" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="451" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="305" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="450" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20">
-    <cfRule type="cellIs" dxfId="449" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="303" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AG38 AG40:AG42 AG44:AG48 AG50:AG51 AG55:AG62 AG53">
-    <cfRule type="cellIs" dxfId="448" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="cellIs" dxfId="447" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG39">
-    <cfRule type="cellIs" dxfId="446" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG43">
-    <cfRule type="cellIs" dxfId="445" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="299" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG49">
-    <cfRule type="cellIs" dxfId="444" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG54">
-    <cfRule type="cellIs" dxfId="443" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG52">
-    <cfRule type="cellIs" dxfId="442" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AI38 AH40:AI42 AH44:AI48 AH50:AI51 AH55:AI62 AH53:AI53">
-    <cfRule type="cellIs" dxfId="441" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="295" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33:AI33">
-    <cfRule type="cellIs" dxfId="440" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH39:AI39">
-    <cfRule type="cellIs" dxfId="439" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="293" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH43:AI43">
-    <cfRule type="cellIs" dxfId="438" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH49:AI49">
-    <cfRule type="cellIs" dxfId="437" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="291" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH54:AI54">
-    <cfRule type="cellIs" dxfId="436" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH52:AI52">
-    <cfRule type="cellIs" dxfId="435" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="289" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ6 AJ8:AJ10 AJ12:AJ16 AJ18:AJ19 AJ23:AJ30 AJ21">
-    <cfRule type="cellIs" dxfId="434" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="276" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="cellIs" dxfId="433" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="432" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="431" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="273" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ17">
-    <cfRule type="cellIs" dxfId="430" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="429" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="271" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="428" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="427" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ34:AJ38 AJ40:AJ42 AJ44:AJ48 AJ50:AJ51 AJ55:AJ62 AJ53">
-    <cfRule type="cellIs" dxfId="426" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33">
-    <cfRule type="cellIs" dxfId="425" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="267" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ39">
-    <cfRule type="cellIs" dxfId="424" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ43">
-    <cfRule type="cellIs" dxfId="423" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="265" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ49">
-    <cfRule type="cellIs" dxfId="422" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="264" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ54">
-    <cfRule type="cellIs" dxfId="421" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="263" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ52">
-    <cfRule type="cellIs" dxfId="420" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AK19 AK23:AK30 AK21">
-    <cfRule type="cellIs" dxfId="419" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="261" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK16 AK8:AK10 AK2:AK6">
-    <cfRule type="cellIs" dxfId="418" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="260" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="417" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="259" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="416" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="415" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17">
-    <cfRule type="cellIs" dxfId="414" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK31">
-    <cfRule type="cellIs" dxfId="413" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="255" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="412" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK20">
-    <cfRule type="cellIs" dxfId="411" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="253" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK34:AK38 AK40:AK42 AK44:AK48 AK50:AK51 AK55:AK62 AK53">
-    <cfRule type="cellIs" dxfId="410" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="252" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK33">
-    <cfRule type="cellIs" dxfId="409" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="251" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK39">
-    <cfRule type="cellIs" dxfId="408" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK43">
-    <cfRule type="cellIs" dxfId="407" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="249" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK49">
-    <cfRule type="cellIs" dxfId="406" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="248" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK54">
-    <cfRule type="cellIs" dxfId="405" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK52">
-    <cfRule type="cellIs" dxfId="404" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL34:AL38 AL40:AL42 AL44:AL48 AL50:AM51 AL55:AM62 AL53:AM53">
-    <cfRule type="cellIs" dxfId="403" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="245" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33">
-    <cfRule type="cellIs" dxfId="402" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL39">
-    <cfRule type="cellIs" dxfId="401" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="243" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL43">
-    <cfRule type="cellIs" dxfId="400" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM44:AM48 AM40:AM42 AM34:AM38">
-    <cfRule type="cellIs" dxfId="399" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33">
-    <cfRule type="cellIs" dxfId="398" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="240" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39">
-    <cfRule type="cellIs" dxfId="397" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="239" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM43">
-    <cfRule type="cellIs" dxfId="396" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL49">
-    <cfRule type="cellIs" dxfId="395" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM49">
-    <cfRule type="cellIs" dxfId="394" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL54:AM54">
-    <cfRule type="cellIs" dxfId="393" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL52:AM52">
-    <cfRule type="cellIs" dxfId="392" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X67:AA71 X73:AA75 X77:AA81 X83:AA84 X88:AA95 X86:AA86">
-    <cfRule type="cellIs" dxfId="391" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="233" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X66:AA66">
-    <cfRule type="cellIs" dxfId="390" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="232" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X72:AA72">
-    <cfRule type="cellIs" dxfId="389" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="231" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76:AA76">
-    <cfRule type="cellIs" dxfId="388" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X82:AA82">
-    <cfRule type="cellIs" dxfId="387" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X87:AA87">
-    <cfRule type="cellIs" dxfId="386" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X85:AA85">
-    <cfRule type="cellIs" dxfId="385" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB67:AE71 AB73:AE75 AB77:AE81 AB83:AE84 AB88:AE95 AB86:AE86">
-    <cfRule type="cellIs" dxfId="384" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB66:AE66">
-    <cfRule type="cellIs" dxfId="383" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB72:AE72">
-    <cfRule type="cellIs" dxfId="382" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB76:AE76">
-    <cfRule type="cellIs" dxfId="381" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="223" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB82:AE82">
-    <cfRule type="cellIs" dxfId="380" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB87:AE87">
-    <cfRule type="cellIs" dxfId="379" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB85:AE85">
-    <cfRule type="cellIs" dxfId="378" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF67:AF71 AF73:AF75 AF77:AF81 AF83:AF84 AF88:AF95 AF86">
-    <cfRule type="cellIs" dxfId="377" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="219" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF66">
-    <cfRule type="cellIs" dxfId="376" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72">
-    <cfRule type="cellIs" dxfId="375" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF76">
-    <cfRule type="cellIs" dxfId="374" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF82">
-    <cfRule type="cellIs" dxfId="373" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF87">
-    <cfRule type="cellIs" dxfId="372" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF85">
-    <cfRule type="cellIs" dxfId="371" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG67:AG71 AG73:AG75 AG77:AG81 AG83:AG84 AG88:AG95 AG86">
-    <cfRule type="cellIs" dxfId="370" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG66">
-    <cfRule type="cellIs" dxfId="369" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="211" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG72">
-    <cfRule type="cellIs" dxfId="368" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG76">
-    <cfRule type="cellIs" dxfId="367" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG82">
-    <cfRule type="cellIs" dxfId="366" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="208" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG87">
-    <cfRule type="cellIs" dxfId="365" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="207" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG85">
-    <cfRule type="cellIs" dxfId="364" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH67:AI71 AH73:AI75 AH77:AI81 AH83:AI84 AH88:AI95 AH86:AI86">
-    <cfRule type="cellIs" dxfId="363" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH66:AI66">
-    <cfRule type="cellIs" dxfId="362" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH72:AI72">
-    <cfRule type="cellIs" dxfId="361" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="203" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH76:AI76">
-    <cfRule type="cellIs" dxfId="360" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH82:AI82">
-    <cfRule type="cellIs" dxfId="359" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="201" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH87:AI87">
-    <cfRule type="cellIs" dxfId="358" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="200" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH85:AI85">
-    <cfRule type="cellIs" dxfId="357" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="199" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ77:AL81 AJ73:AL75 AJ67:AL71 AJ83:AM84 AJ88:AM95 AJ86:AM86">
-    <cfRule type="cellIs" dxfId="356" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ66:AL66">
-    <cfRule type="cellIs" dxfId="355" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="197" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ72:AL72">
-    <cfRule type="cellIs" dxfId="354" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="196" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ76:AL76">
-    <cfRule type="cellIs" dxfId="353" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="195" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM67:AM71 AM73:AM75 AM77:AM81">
-    <cfRule type="cellIs" dxfId="352" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM66">
-    <cfRule type="cellIs" dxfId="351" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="193" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM72">
-    <cfRule type="cellIs" dxfId="350" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM76">
-    <cfRule type="cellIs" dxfId="349" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ82:AL82">
-    <cfRule type="cellIs" dxfId="348" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM82">
-    <cfRule type="cellIs" dxfId="347" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ87:AM87">
-    <cfRule type="cellIs" dxfId="346" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ85:AM85">
-    <cfRule type="cellIs" dxfId="345" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN67:AN71 AN73:AN75 AN77:AN81 AN83:AN84 AN88:AN95 AN86">
-    <cfRule type="cellIs" dxfId="344" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN66">
-    <cfRule type="cellIs" dxfId="343" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN72">
-    <cfRule type="cellIs" dxfId="342" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN76">
-    <cfRule type="cellIs" dxfId="341" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="183" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN82">
-    <cfRule type="cellIs" dxfId="340" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN87">
-    <cfRule type="cellIs" dxfId="339" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN85">
-    <cfRule type="cellIs" dxfId="338" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO67:AO71 AO73:AO75 AO77:AO81 AO83:AO84 AO88:AO95 AO86">
-    <cfRule type="cellIs" dxfId="337" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO66">
-    <cfRule type="cellIs" dxfId="336" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO72">
-    <cfRule type="cellIs" dxfId="335" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="177" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO76">
-    <cfRule type="cellIs" dxfId="334" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO82">
-    <cfRule type="cellIs" dxfId="333" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="175" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO87">
-    <cfRule type="cellIs" dxfId="332" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO85">
-    <cfRule type="cellIs" dxfId="331" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP67:AP71 AP73:AP75 AP77:AP81 AP83:AQ84 AP88:AQ95 AP86:AQ86">
-    <cfRule type="cellIs" dxfId="330" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP66">
-    <cfRule type="cellIs" dxfId="329" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP72">
-    <cfRule type="cellIs" dxfId="328" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP76">
-    <cfRule type="cellIs" dxfId="327" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ77:AQ81 AQ73:AQ75 AQ67:AQ71">
-    <cfRule type="cellIs" dxfId="326" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ66">
-    <cfRule type="cellIs" dxfId="325" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="167" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ72">
-    <cfRule type="cellIs" dxfId="324" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ76">
-    <cfRule type="cellIs" dxfId="323" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP82">
-    <cfRule type="cellIs" dxfId="322" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ82">
-    <cfRule type="cellIs" dxfId="321" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="163" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP87:AQ87">
-    <cfRule type="cellIs" dxfId="320" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP85:AQ85">
-    <cfRule type="cellIs" dxfId="319" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X99:X103 X105:X107 X109:X113 X115:X116 X120:X127 X118">
-    <cfRule type="cellIs" dxfId="318" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X98">
-    <cfRule type="cellIs" dxfId="317" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X104">
-    <cfRule type="cellIs" dxfId="316" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X108">
-    <cfRule type="cellIs" dxfId="315" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X114">
-    <cfRule type="cellIs" dxfId="314" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X119">
-    <cfRule type="cellIs" dxfId="313" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X117">
-    <cfRule type="cellIs" dxfId="312" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y99:Y103 Y105:Y107 Y109:Y113 Y115:Y116 Y120:Y127 Y118">
-    <cfRule type="cellIs" dxfId="311" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y98">
-    <cfRule type="cellIs" dxfId="310" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y104">
-    <cfRule type="cellIs" dxfId="309" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y108">
-    <cfRule type="cellIs" dxfId="308" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y114">
-    <cfRule type="cellIs" dxfId="307" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="131" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y119">
-    <cfRule type="cellIs" dxfId="306" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y117">
-    <cfRule type="cellIs" dxfId="305" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z99:Z103 Z105:Z107 Z109:Z113 Z115:Z116 Z120:Z127 Z118">
-    <cfRule type="cellIs" dxfId="304" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z98">
-    <cfRule type="cellIs" dxfId="303" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z104">
-    <cfRule type="cellIs" dxfId="302" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z108">
-    <cfRule type="cellIs" dxfId="301" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="125" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114">
-    <cfRule type="cellIs" dxfId="300" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="cellIs" dxfId="299" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="cellIs" dxfId="298" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA99:AA103 AA105:AA107 AA109:AA113 AA115:AA116 AA120:AA127 AA118">
-    <cfRule type="cellIs" dxfId="297" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA98">
-    <cfRule type="cellIs" dxfId="296" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="120" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA104">
-    <cfRule type="cellIs" dxfId="295" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA108">
-    <cfRule type="cellIs" dxfId="294" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA114">
-    <cfRule type="cellIs" dxfId="293" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA119">
-    <cfRule type="cellIs" dxfId="292" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="116" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA117">
-    <cfRule type="cellIs" dxfId="291" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB99:AB103 AB105:AB107 AB109:AB113 AB115:AB116 AB120:AB127 AB118">
-    <cfRule type="cellIs" dxfId="290" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB98">
-    <cfRule type="cellIs" dxfId="289" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="113" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB104">
-    <cfRule type="cellIs" dxfId="288" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB108">
-    <cfRule type="cellIs" dxfId="287" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB114">
-    <cfRule type="cellIs" dxfId="286" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB119">
-    <cfRule type="cellIs" dxfId="285" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB117">
-    <cfRule type="cellIs" dxfId="284" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC99:AC103 AC105:AC107 AC109:AC113 AC115:AC116 AC120:AC127 AC118">
-    <cfRule type="cellIs" dxfId="283" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC98">
-    <cfRule type="cellIs" dxfId="282" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC104">
-    <cfRule type="cellIs" dxfId="281" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC108">
-    <cfRule type="cellIs" dxfId="280" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC114">
-    <cfRule type="cellIs" dxfId="279" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC119">
-    <cfRule type="cellIs" dxfId="278" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC117">
-    <cfRule type="cellIs" dxfId="277" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD99:AD103 AD105:AD107 AD109:AD113 AD115:AD116 AD120:AD127 AD118">
-    <cfRule type="cellIs" dxfId="276" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD98">
-    <cfRule type="cellIs" dxfId="275" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD104">
-    <cfRule type="cellIs" dxfId="274" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD108">
-    <cfRule type="cellIs" dxfId="273" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD114">
-    <cfRule type="cellIs" dxfId="272" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD119">
-    <cfRule type="cellIs" dxfId="271" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD117">
-    <cfRule type="cellIs" dxfId="270" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE99:AE103 AE105:AE107 AE109:AE113 AE115:AE116 AE120:AE127 AE118">
-    <cfRule type="cellIs" dxfId="269" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE98">
-    <cfRule type="cellIs" dxfId="268" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE104">
-    <cfRule type="cellIs" dxfId="267" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE108">
-    <cfRule type="cellIs" dxfId="266" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE114">
-    <cfRule type="cellIs" dxfId="265" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE119">
-    <cfRule type="cellIs" dxfId="264" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE117">
-    <cfRule type="cellIs" dxfId="263" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF99:AF103 AF105:AF107 AF109:AF113 AF115:AF116 AF120:AF127 AF118">
-    <cfRule type="cellIs" dxfId="262" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF98">
-    <cfRule type="cellIs" dxfId="261" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF104">
-    <cfRule type="cellIs" dxfId="260" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF108">
-    <cfRule type="cellIs" dxfId="259" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF114">
-    <cfRule type="cellIs" dxfId="258" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF119">
-    <cfRule type="cellIs" dxfId="257" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF117">
-    <cfRule type="cellIs" dxfId="256" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG99:AG103 AG105:AG107 AG109:AG113 AG115:AG116 AG120:AG127 AG118">
-    <cfRule type="cellIs" dxfId="255" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG98">
-    <cfRule type="cellIs" dxfId="254" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG104">
-    <cfRule type="cellIs" dxfId="253" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG108">
-    <cfRule type="cellIs" dxfId="252" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG114">
-    <cfRule type="cellIs" dxfId="251" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG119">
-    <cfRule type="cellIs" dxfId="250" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG117">
-    <cfRule type="cellIs" dxfId="249" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH99:AH103 AH105:AH107 AH109:AH113 AH115:AH116 AH120:AH127 AH118">
-    <cfRule type="cellIs" dxfId="248" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH98">
-    <cfRule type="cellIs" dxfId="247" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH104">
-    <cfRule type="cellIs" dxfId="246" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH108">
-    <cfRule type="cellIs" dxfId="245" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH114">
-    <cfRule type="cellIs" dxfId="244" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH119">
-    <cfRule type="cellIs" dxfId="243" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH117">
-    <cfRule type="cellIs" dxfId="242" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI99:AI103 AI105:AI107 AI109:AI113 AI115:AI116 AI120:AI127 AI118">
-    <cfRule type="cellIs" dxfId="241" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI98">
-    <cfRule type="cellIs" dxfId="240" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI104">
-    <cfRule type="cellIs" dxfId="239" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI108">
-    <cfRule type="cellIs" dxfId="238" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI114">
-    <cfRule type="cellIs" dxfId="237" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI119">
-    <cfRule type="cellIs" dxfId="236" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI117">
-    <cfRule type="cellIs" dxfId="235" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ115:AJ116 AJ120:AJ127 AJ118">
-    <cfRule type="cellIs" dxfId="234" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ99:AJ103 AJ105:AJ107 AJ109:AJ113">
-    <cfRule type="cellIs" dxfId="233" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ98">
-    <cfRule type="cellIs" dxfId="232" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ104">
-    <cfRule type="cellIs" dxfId="231" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ108">
-    <cfRule type="cellIs" dxfId="230" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ114">
-    <cfRule type="cellIs" dxfId="229" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ119">
-    <cfRule type="cellIs" dxfId="228" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ117">
-    <cfRule type="cellIs" dxfId="227" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK109:AK113 AK105:AK107 AK99:AK103 AK115:AK116 AK120:AK127 AK118">
-    <cfRule type="cellIs" dxfId="226" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK98">
-    <cfRule type="cellIs" dxfId="225" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK104">
-    <cfRule type="cellIs" dxfId="224" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK108">
-    <cfRule type="cellIs" dxfId="223" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK114">
-    <cfRule type="cellIs" dxfId="222" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK119">
-    <cfRule type="cellIs" dxfId="221" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK117">
-    <cfRule type="cellIs" dxfId="220" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL109:AL113 AL105:AL107 AL99:AL103 AL115:AL116 AL120:AL127 AL118">
-    <cfRule type="cellIs" dxfId="219" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL98">
-    <cfRule type="cellIs" dxfId="218" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL104">
-    <cfRule type="cellIs" dxfId="217" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL108">
-    <cfRule type="cellIs" dxfId="216" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL114">
-    <cfRule type="cellIs" dxfId="215" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL119">
-    <cfRule type="cellIs" dxfId="214" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL117">
-    <cfRule type="cellIs" dxfId="213" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM109:AM113 AM105:AM107 AM99:AM103 AM115:AM116 AM120:AM127 AM118">
-    <cfRule type="cellIs" dxfId="212" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM98">
-    <cfRule type="cellIs" dxfId="211" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM104">
-    <cfRule type="cellIs" dxfId="210" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM108">
-    <cfRule type="cellIs" dxfId="209" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM114">
-    <cfRule type="cellIs" dxfId="208" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM119">
-    <cfRule type="cellIs" dxfId="207" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM117">
-    <cfRule type="cellIs" dxfId="206" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN115:AN116 AN120:AN127 AN118">
-    <cfRule type="cellIs" dxfId="205" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN109:AN113 AN105:AN107 AN99:AN103">
-    <cfRule type="cellIs" dxfId="204" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN98">
-    <cfRule type="cellIs" dxfId="203" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN104">
-    <cfRule type="cellIs" dxfId="202" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN108">
-    <cfRule type="cellIs" dxfId="201" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN114">
-    <cfRule type="cellIs" dxfId="200" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN119">
-    <cfRule type="cellIs" dxfId="199" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN117">
-    <cfRule type="cellIs" dxfId="198" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO99:AO103 AO105:AO107 AO109:AO113 AO115:AO116 AO120:AO127 AO118">
-    <cfRule type="cellIs" dxfId="197" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO98">
-    <cfRule type="cellIs" dxfId="196" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO104">
-    <cfRule type="cellIs" dxfId="195" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO108">
-    <cfRule type="cellIs" dxfId="194" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO114">
-    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO119">
-    <cfRule type="cellIs" dxfId="192" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO117">
-    <cfRule type="cellIs" dxfId="191" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP99:AP103 AP105:AP107 AP109:AP113 AP115:AP116 AP120:AP127 AP118">
-    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP98">
-    <cfRule type="cellIs" dxfId="189" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP104">
-    <cfRule type="cellIs" dxfId="188" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP108">
-    <cfRule type="cellIs" dxfId="187" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP114">
-    <cfRule type="cellIs" dxfId="186" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP119">
-    <cfRule type="cellIs" dxfId="185" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP117">
-    <cfRule type="cellIs" dxfId="184" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ99:AQ103 AQ105:AQ107 AQ109:AQ113 AQ115:AQ116 AQ120:AQ127 AQ118">
-    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ98">
-    <cfRule type="cellIs" dxfId="182" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ104">
-    <cfRule type="cellIs" dxfId="181" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ108">
-    <cfRule type="cellIs" dxfId="180" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ114">
-    <cfRule type="cellIs" dxfId="179" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ119">
-    <cfRule type="cellIs" dxfId="178" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ117">
-    <cfRule type="cellIs" dxfId="177" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27303,651 +27962,3955 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:U18">
-    <cfRule type="cellIs" dxfId="176" priority="211" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="211" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:AQ2">
-    <cfRule type="cellIs" dxfId="173" priority="208" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="208" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="209" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AQ3">
-    <cfRule type="cellIs" dxfId="170" priority="205" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="205" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="206" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="207" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AQ6">
-    <cfRule type="cellIs" dxfId="167" priority="202" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:AQ10">
-    <cfRule type="cellIs" dxfId="164" priority="199" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="199" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="201" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:AQ13">
-    <cfRule type="cellIs" dxfId="161" priority="196" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="196" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:AQ18">
-    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="193" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="195" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:AQ21">
-    <cfRule type="cellIs" dxfId="155" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:AQ22">
-    <cfRule type="cellIs" dxfId="152" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23:AQ23">
-    <cfRule type="cellIs" dxfId="149" priority="184" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="184" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:AQ28">
-    <cfRule type="cellIs" dxfId="146" priority="181" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="183" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:AA30">
-    <cfRule type="cellIs" dxfId="143" priority="178" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="178" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y31:AA31">
-    <cfRule type="cellIs" dxfId="140" priority="175" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="175" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="177" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32:AA32">
-    <cfRule type="cellIs" dxfId="137" priority="172" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="172" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AA37">
-    <cfRule type="cellIs" dxfId="134" priority="169" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="169" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="170" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AE30">
-    <cfRule type="cellIs" dxfId="131" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB31:AE31">
-    <cfRule type="cellIs" dxfId="128" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32:AE32">
-    <cfRule type="cellIs" dxfId="125" priority="160" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="160" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="161" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33:AE37">
-    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="157" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30">
-    <cfRule type="cellIs" dxfId="119" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="116" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="152" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="153" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="148" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:X37">
-    <cfRule type="cellIs" dxfId="110" priority="145" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="145" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="146" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL30:AM30">
-    <cfRule type="cellIs" dxfId="107" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL31:AM31">
-    <cfRule type="cellIs" dxfId="104" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL32:AM32">
-    <cfRule type="cellIs" dxfId="101" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33:AM37">
-    <cfRule type="cellIs" dxfId="98" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP33:AQ37">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN30">
-    <cfRule type="cellIs" dxfId="92" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN31">
-    <cfRule type="cellIs" dxfId="89" priority="127" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN32">
-    <cfRule type="cellIs" dxfId="86" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN33:AN37">
-    <cfRule type="cellIs" dxfId="83" priority="121" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="121" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="122" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN30:AO30">
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN31:AO31">
-    <cfRule type="cellIs" dxfId="77" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN32:AO32">
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN33:AO37">
-    <cfRule type="cellIs" dxfId="71" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="65" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="62" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33:AF37">
-    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="79" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33:AG37">
-    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH30:AI30">
-    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH31:AI31">
-    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AI32">
-    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33:AI37">
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="61" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ30:AK30">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31:AK31">
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ32:AK32">
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ33:AK37">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33:W37">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30:AQ30">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP31:AQ31">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32:AQ32">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74987ED0-AC2A-B249-9DAC-724768C31F9C}">
+  <dimension ref="A1:AH30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AK29" sqref="AK29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="17" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.33203125" customWidth="1"/>
+    <col min="34" max="34" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="26">
+        <v>0</v>
+      </c>
+      <c r="T2" s="27">
+        <v>0</v>
+      </c>
+      <c r="U2" s="27">
+        <v>0</v>
+      </c>
+      <c r="V2" s="28">
+        <v>0</v>
+      </c>
+      <c r="W2" s="26">
+        <v>1</v>
+      </c>
+      <c r="X2" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="29">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="30">
+        <v>1</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="29">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="30">
+        <v>0</v>
+      </c>
+      <c r="W4" s="29">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="29">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="30">
+        <v>1</v>
+      </c>
+      <c r="W5" s="29">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="29">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="30">
+        <v>0</v>
+      </c>
+      <c r="W6" s="29">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="31">
+        <v>1</v>
+      </c>
+      <c r="T7" s="32">
+        <v>1</v>
+      </c>
+      <c r="U7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="33">
+        <v>1</v>
+      </c>
+      <c r="W7" s="31">
+        <v>0</v>
+      </c>
+      <c r="X7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="26">
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28">
+        <v>0</v>
+      </c>
+      <c r="W8" s="26">
+        <v>0</v>
+      </c>
+      <c r="X8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="29">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="30">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="29">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="30">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="31">
+        <v>0</v>
+      </c>
+      <c r="T11" s="32">
+        <v>0</v>
+      </c>
+      <c r="U11" s="32">
+        <v>0</v>
+      </c>
+      <c r="V11" s="33">
+        <v>0</v>
+      </c>
+      <c r="W11" s="31">
+        <v>0</v>
+      </c>
+      <c r="X11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="26">
+        <v>1</v>
+      </c>
+      <c r="T12" s="27">
+        <v>1</v>
+      </c>
+      <c r="U12" s="27">
+        <v>0</v>
+      </c>
+      <c r="V12" s="28">
+        <v>0</v>
+      </c>
+      <c r="W12" s="26">
+        <v>1</v>
+      </c>
+      <c r="X12" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="29">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="29">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="29">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="30">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="31">
+        <v>0</v>
+      </c>
+      <c r="T16" s="32">
+        <v>0</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0</v>
+      </c>
+      <c r="V16" s="33">
+        <v>1</v>
+      </c>
+      <c r="W16" s="31">
+        <v>0</v>
+      </c>
+      <c r="X16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="27">
+        <v>0</v>
+      </c>
+      <c r="U17" s="27">
+        <v>0</v>
+      </c>
+      <c r="V17" s="28">
+        <v>0</v>
+      </c>
+      <c r="W17" s="26">
+        <v>1</v>
+      </c>
+      <c r="X17" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="29">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="30">
+        <v>0</v>
+      </c>
+      <c r="W18" s="29">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="31">
+        <v>0</v>
+      </c>
+      <c r="T19" s="32">
+        <v>0</v>
+      </c>
+      <c r="U19" s="32">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33">
+        <v>0</v>
+      </c>
+      <c r="W19" s="31">
+        <v>0</v>
+      </c>
+      <c r="X19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="26">
+        <v>1</v>
+      </c>
+      <c r="T20" s="27">
+        <v>0</v>
+      </c>
+      <c r="U20" s="27">
+        <v>0</v>
+      </c>
+      <c r="V20" s="28">
+        <v>0</v>
+      </c>
+      <c r="W20" s="26">
+        <v>1</v>
+      </c>
+      <c r="X20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="29">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="30">
+        <v>0</v>
+      </c>
+      <c r="W21" s="29">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="31">
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
+        <v>0</v>
+      </c>
+      <c r="U22" s="32">
+        <v>0</v>
+      </c>
+      <c r="V22" s="33">
+        <v>1</v>
+      </c>
+      <c r="W22" s="31">
+        <v>0</v>
+      </c>
+      <c r="X22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="26">
+        <v>1</v>
+      </c>
+      <c r="T23" s="27">
+        <v>0</v>
+      </c>
+      <c r="U23" s="27">
+        <v>0</v>
+      </c>
+      <c r="V23" s="28">
+        <v>0</v>
+      </c>
+      <c r="W23" s="26">
+        <v>1</v>
+      </c>
+      <c r="X23" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="29">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="30">
+        <v>0</v>
+      </c>
+      <c r="W24" s="29">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="31">
+        <v>1</v>
+      </c>
+      <c r="T25" s="32">
+        <v>0</v>
+      </c>
+      <c r="U25" s="32">
+        <v>0</v>
+      </c>
+      <c r="V25" s="33">
+        <v>0</v>
+      </c>
+      <c r="W25" s="31">
+        <v>1</v>
+      </c>
+      <c r="X25" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="26">
+        <v>0</v>
+      </c>
+      <c r="T26" s="27">
+        <v>0</v>
+      </c>
+      <c r="U26" s="27">
+        <v>0</v>
+      </c>
+      <c r="V26" s="28">
+        <v>0</v>
+      </c>
+      <c r="W26" s="26">
+        <v>0</v>
+      </c>
+      <c r="X26" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="29">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="30">
+        <v>0</v>
+      </c>
+      <c r="W27" s="29">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="29">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="30">
+        <v>0</v>
+      </c>
+      <c r="W28" s="29">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="30">
+        <v>0</v>
+      </c>
+      <c r="W29" s="29">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="31">
+        <v>0</v>
+      </c>
+      <c r="T30" s="32">
+        <v>0</v>
+      </c>
+      <c r="U30" s="32">
+        <v>0</v>
+      </c>
+      <c r="V30" s="33">
+        <v>0</v>
+      </c>
+      <c r="W30" s="31">
+        <v>1</v>
+      </c>
+      <c r="X30" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:Q30">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S30">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T30">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U30">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V30">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W30">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X30">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y30">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z30">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA30">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB30">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC30">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD30">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE30">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF30">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG30">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Stablestates/25Oct_S1model.xlsx
+++ b/Stablestates/25Oct_S1model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/Stablestates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED71AD-87B5-2744-B437-D62FCCB7ABE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13851C38-55DB-F14F-9A16-187E841CACF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="980" windowWidth="25100" windowHeight="19040" activeTab="6" xr2:uid="{10AF4D6B-B7E4-5644-8352-3E93EADC3131}"/>
+    <workbookView xWindow="14140" yWindow="2680" windowWidth="25100" windowHeight="19040" activeTab="6" xr2:uid="{10AF4D6B-B7E4-5644-8352-3E93EADC3131}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="57">
   <si>
     <t>Intermediate</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t xml:space="preserve">EGFR </t>
+  </si>
+  <si>
+    <t>NB7-4</t>
+  </si>
+  <si>
+    <t>NB7-1</t>
+  </si>
+  <si>
+    <t>NB5-6</t>
+  </si>
+  <si>
+    <t>NB5-3</t>
+  </si>
+  <si>
+    <t>NB5-2</t>
   </si>
 </sst>
 </file>
@@ -53103,7 +53118,7 @@
   <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54402,7 +54417,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C14" s="42">
         <v>0</v>
@@ -54508,7 +54523,7 @@
     <row r="15" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
       <c r="B15" s="73" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C15" s="29">
         <v>0</v>
@@ -54614,7 +54629,7 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
       <c r="B16" s="73" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C16" s="29">
         <v>0</v>
@@ -54720,7 +54735,7 @@
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
       <c r="B17" s="73" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C17" s="29">
         <v>0</v>
@@ -54826,7 +54841,7 @@
     <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="73" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C18" s="31">
         <v>0</v>
